--- a/Hardware/RPI5-Scan2Go-HAT/Technische specificaties HAT.xlsx
+++ b/Hardware/RPI5-Scan2Go-HAT/Technische specificaties HAT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/cr_tak_student_han_nl/Documents/S8 (afstuderen)/Software+Hardware/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/cr_tak_student_han_nl/Documents/S8 (afstuderen)/Software+Hardware/Hardware/RPI5-Scan2Go-HAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="434" documentId="8_{471679F7-0749-465C-94AA-78C37701B0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94F1A473-348D-4778-A19A-DD18914CF2E9}"/>
+  <xr:revisionPtr revIDLastSave="448" documentId="8_{471679F7-0749-465C-94AA-78C37701B0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F6AB5D6-8D49-499D-AB49-CF4D58DDAD62}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A1EA83D2-A6D0-4FF4-A387-952356D5B8E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1EA83D2-A6D0-4FF4-A387-952356D5B8E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -87,22 +87,13 @@
     <t>T5.2</t>
   </si>
   <si>
-    <t>Er wordt gebruik gemaakt van een printplaat die zonder solderen verbonden kan worden aan de RPI en PICO</t>
-  </si>
-  <si>
     <t xml:space="preserve">De RPI afmetingen worden geïnspireerd op de volgende specificatie/richtlijnen: https://github.com/raspberrypi/hats </t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>De HAT bevat een barreljack 5.2mm formaat voor voeding</t>
-  </si>
-  <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>Voor de audio apparatuur wordt een tulp connector gekozen</t>
   </si>
   <si>
     <t>T3.3</t>
@@ -178,38 +169,56 @@
 De connector voor de Raspberry Pi Pico is een THT pin header met dezelfde pitch en dikte.</t>
   </si>
   <si>
+    <t>Hierdoor ontstaat de mogelijkheid om de Raspberry Pi Pico te blijven voeden wanneer de stroomwegvalt. Aangezien dit niet veel meerwaarde biedt voor nu wordt dit concept niet verder meer uitgewerkt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niet haalbaar met de huidige voedingsvereisten voor de randapparatuur en de Raspberry Pi 5's specifieke voedings benodigdheden. </t>
+  </si>
+  <si>
+    <t>De randapparatuur wordt gevoed door deze pinnen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dit is dezelfde Led als die wordt gebruikt door de rest van de FDS. </t>
+  </si>
+  <si>
+    <t>Een 6x6x6mm THT tactile knop wordt gebruikt als een reset knop.</t>
+  </si>
+  <si>
+    <t>Deze knop wordt uitgebroken.</t>
+  </si>
+  <si>
+    <t>Zelfde knop als bij T5.1 wordt gebruikt voor de gebruikers knop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er is geen wens vanuit de opdrachtgever om een andere knop hiervoor te kiezen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dit biedt de extra mogelijkheid om via de GPIO pinnen van de Raspberry Pi 3&amp;4 geluid te sturen naar de audio versterker. </t>
+  </si>
+  <si>
+    <t>T7.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Latch die gebruikt wordt voor het opvangen van het signaal van de metaaldetector is van het type: SR-latch en het model is de MC14043BDR2G. </t>
+  </si>
+  <si>
+    <t>Er wordt gebruik gemaakt van een printplaat die zonder solderen verbonden kan worden aan de RPI en PICO.</t>
+  </si>
+  <si>
+    <t>De HAT bevat een barreljack 5.2mm formaat voor voeding.</t>
+  </si>
+  <si>
+    <t>Deze SR-latch bevat de juiste logische spanningslevels en logica om door de Raspberry Pi Pico aangstuurd te worden.</t>
+  </si>
+  <si>
+    <t>Voor de audio apparatuur wordt een tulp connector gekozen.</t>
+  </si>
+  <si>
     <t>De Raspberry Pi Pico wordt gevoed vanuit de Raspberry Pi 5 poort en kan indien gewenst ook worden gevoed vanuit de PCB. 
-Dit volgens onderstaande circuit uit de RPI2040 datasheet, waarbij V=5V</t>
-  </si>
-  <si>
-    <t>Hierdoor ontstaat de mogelijkheid om de Raspberry Pi Pico te blijven voeden wanneer de stroomwegvalt. Aangezien dit niet veel meerwaarde biedt voor nu wordt dit concept niet verder meer uitgewerkt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niet haalbaar met de huidige voedingsvereisten voor de randapparatuur en de Raspberry Pi 5's specifieke voedings benodigdheden. </t>
-  </si>
-  <si>
-    <t>De randapparatuur wordt gevoed door deze pinnen.</t>
-  </si>
-  <si>
-    <t>Een WS2812b Led wordt gebruikt als status indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dit is dezelfde Led als die wordt gebruikt door de rest van de FDS. </t>
-  </si>
-  <si>
-    <t>Een 6x6x6mm THT tactile knop wordt gebruikt als een reset knop.</t>
-  </si>
-  <si>
-    <t>Deze knop wordt uitgebroken.</t>
-  </si>
-  <si>
-    <t>Zelfde knop als bij T5.1 wordt gebruikt voor de gebruikers knop.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er is geen wens vanuit de opdrachtgever om een andere knop hiervoor te kiezen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dit biedt de extra mogelijkheid om via de GPIO pinnen van de Raspberry Pi 3&amp;4 geluid te sturen naar de audio versterker. </t>
+Dit volgens onderstaande circuit uit de RPI2040 datasheet, waarbij V=5V.</t>
+  </si>
+  <si>
+    <t>Een WS2812b Led wordt gebruikt als status indicator, of gebruikersled.</t>
   </si>
 </sst>
 </file>
@@ -559,15 +568,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>142987</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1501140</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>26693</xdr:rowOff>
+      <xdr:colOff>1590787</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>179093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -597,8 +606,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="53340" y="5158740"/>
-          <a:ext cx="2369820" cy="1268753"/>
+          <a:off x="142987" y="8034617"/>
+          <a:ext cx="2389094" cy="1243652"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,15 +629,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4328160</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38486</xdr:rowOff>
+      <xdr:colOff>4417807</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5646420</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>5736067</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -658,8 +667,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5250180" y="5159126"/>
-          <a:ext cx="1318260" cy="1211193"/>
+          <a:off x="5359101" y="8035003"/>
+          <a:ext cx="1318260" cy="1189678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -681,15 +690,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1539240</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>1628887</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4253473</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>4343120</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>34065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -719,8 +728,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2461260" y="5151120"/>
-          <a:ext cx="2714233" cy="1310640"/>
+          <a:off x="2570181" y="8026997"/>
+          <a:ext cx="2714233" cy="1285539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1059,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7C3E10-E9C9-4DAC-83DF-6861CB9F2522}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1095,38 +1104,38 @@
         <v>2</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1134,10 +1143,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -1149,24 +1158,24 @@
         <v>4</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1174,13 +1183,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1191,38 +1200,38 @@
         <v>3</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1230,13 +1239,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1244,39 +1253,39 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1284,13 +1293,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1301,23 +1310,37 @@
         <v>4</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Hardware/RPI5-Scan2Go-HAT/Technische specificaties HAT.xlsx
+++ b/Hardware/RPI5-Scan2Go-HAT/Technische specificaties HAT.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/cr_tak_student_han_nl/Documents/S8 (afstuderen)/Software+Hardware/Hardware/RPI5-Scan2Go-HAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="448" documentId="8_{471679F7-0749-465C-94AA-78C37701B0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F6AB5D6-8D49-499D-AB49-CF4D58DDAD62}"/>
+  <xr:revisionPtr revIDLastSave="456" documentId="8_{471679F7-0749-465C-94AA-78C37701B0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39D9CF6D-B267-4744-9CE9-78D24EF40647}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1EA83D2-A6D0-4FF4-A387-952356D5B8E4}"/>
+    <workbookView minimized="1" xWindow="3420" yWindow="3420" windowWidth="17280" windowHeight="9960" xr2:uid="{A1EA83D2-A6D0-4FF4-A387-952356D5B8E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">Blad1!$A$15</definedName>
+    <definedName name="_ftn1" localSheetId="0">Blad1!$A$14</definedName>
     <definedName name="_ftnref1" localSheetId="0">Blad1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>MoSCoW</t>
   </si>
@@ -66,9 +63,6 @@
     <t>T2.1</t>
   </si>
   <si>
-    <t>T2.2</t>
-  </si>
-  <si>
     <t>T3.1</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
   </si>
   <si>
     <t>Er worden soldeer jumpers geïnstalleerd op plekken waar functionaliteit kan worden geschakeld tussen RPI5 en RPI3 en RPI4, Hierbij is de standaard uitgaande van de RPI5.</t>
-  </si>
-  <si>
-    <t>De voedingsheaders leveren de directe voeding door aan de uitgangspoorten. Een minimale vorm van bescherming in de vorm van een diode en zekering wordt toegepast volgens onderstaande circuit</t>
   </si>
   <si>
     <t>T6.0</t>
@@ -219,6 +210,12 @@
   </si>
   <si>
     <t>Een WS2812b Led wordt gebruikt als status indicator, of gebruikersled.</t>
+  </si>
+  <si>
+    <t>De voedingsheaders leveren de directe voeding door aan de uitgangspoorten. Een minimale vorm van bescherming in de vorm van een diode en zekering wordt toegepast volgens onderstaande circuit.</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -569,13 +566,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142987</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1590787</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>179093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -630,13 +627,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4417807</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>11591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5736067</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>125505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -691,13 +688,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1628887</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>3585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4343120</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>34065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -749,6 +746,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1068,15 +1069,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7C3E10-E9C9-4DAC-83DF-6861CB9F2522}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="90.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.5546875" bestFit="1" customWidth="1"/>
@@ -1084,264 +1085,252 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/RPI5-Scan2Go-HAT/Technische specificaties HAT.xlsx
+++ b/Hardware/RPI5-Scan2Go-HAT/Technische specificaties HAT.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/cr_tak_student_han_nl/Documents/S8 (afstuderen)/Software+Hardware/Hardware/RPI5-Scan2Go-HAT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crtak\OneDrive - HAN\S8 (afstuderen)\Software+Hardware\Hardware\RPI5-Scan2Go-HAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="456" documentId="8_{471679F7-0749-465C-94AA-78C37701B0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39D9CF6D-B267-4744-9CE9-78D24EF40647}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9F6F5D-5FE1-436D-AB03-9F14B596A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3420" yWindow="3420" windowWidth="17280" windowHeight="9960" xr2:uid="{A1EA83D2-A6D0-4FF4-A387-952356D5B8E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1EA83D2-A6D0-4FF4-A387-952356D5B8E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">Blad1!$A$14</definedName>
+    <definedName name="_ftn1" localSheetId="0">Blad1!$A$13</definedName>
     <definedName name="_ftnref1" localSheetId="0">Blad1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>MoSCoW</t>
   </si>
@@ -84,9 +84,6 @@
     <t xml:space="preserve">De RPI afmetingen worden geïnspireerd op de volgende specificatie/richtlijnen: https://github.com/raspberrypi/hats </t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve">De Raspberry Pi 5 word vanuit de printplaat gevoed via de GPIO pinnen. </t>
-  </si>
-  <si>
-    <t>T4.3</t>
   </si>
   <si>
     <t>Er worden soldeer jumpers geïnstalleerd op plekken waar functionaliteit kan worden geschakeld tussen RPI5 en RPI3 en RPI4, Hierbij is de standaard uitgaande van de RPI5.</t>
@@ -481,15 +475,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -566,13 +557,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142987</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1590787</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>179093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -627,13 +618,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4417807</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>11591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5736067</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>125505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -688,13 +679,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1628887</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>3585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4343120</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>34065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -746,10 +737,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1069,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7C3E10-E9C9-4DAC-83DF-6861CB9F2522}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="A1:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,86 +1072,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="C4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1172,13 +1159,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1188,39 +1175,39 @@
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>33</v>
+      <c r="C8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1228,109 +1215,97 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="8" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>52</v>
+      <c r="D17" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
